--- a/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/gps-BRMedDRA.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/gps-BRMedDRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFF5FA97-BF0D-2945-B1B8-8CAADD98061C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D568013-0322-9048-85A3-CD6259060204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22160" windowHeight="17240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="760" windowWidth="22160" windowHeight="17240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equivalências" sheetId="2" r:id="rId1"/>
@@ -886,7 +886,7 @@
   <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
